--- a/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:42:48+00:00</t>
+    <t>2023-03-03T11:24:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T11:24:23+00:00</t>
+    <t>2023-03-03T11:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T11:25:12+00:00</t>
+    <t>2023-03-03T12:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
